--- a/biology/Zoologie/Holosiro/Holosiro.xlsx
+++ b/biology/Zoologie/Holosiro/Holosiro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holosiro est un genre d'opilions cyphophthalmes de la famille des Sironidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis[1]. Elles se rencontrent en Californie, en Oregon et au Washington.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis. Elles se rencontrent en Californie, en Oregon et au Washington.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (24/03/2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (24/03/2023) :
 Holosiro acaroides Ewing, 1923
 Holosiro calaveras (Giribet &amp; Shear, 2010)
 Holosiro ewingi Karaman, 2022
@@ -576,9 +592,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été créé en 1923 par Henry Ellsworth Ewing (d) (1883-1951) dans les Sironidae. Il est placé en synonymie avec Siro par Newell en 1947[3]. Il est relevé de synonymie par Karaman en 2022[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été créé en 1923 par Henry Ellsworth Ewing (d) (1883-1951) dans les Sironidae. Il est placé en synonymie avec Siro par Newell en 1947. Il est relevé de synonymie par Karaman en 2022.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Ewing, 1923, « Holosiro acaroides, new genus and species, The only new world representative of the mite-like phalangids of the suborder Cyphophthalmi », Annals of the Entomological Society of America, vol. 16, p. 387–390 (lire en ligne).</t>
         </is>
